--- a/A7.1/Ingredients.xlsx
+++ b/A7.1/Ingredients.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emily/Documents/GitHub/ewp2111.github.io/A7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emily/Documents/GitHub/ewp2111.github.io/A7.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,9 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
-  <si>
-    <t>Materials (pounds)</t>
-  </si>
   <si>
     <t>2,117 Pounds of hops is equivalent to 74,105 pounds of extract</t>
   </si>
@@ -116,6 +113,9 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Materials (pounds) </t>
+  </si>
 </sst>
 </file>
 
@@ -123,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +155,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,27 +189,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -279,105 +316,96 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>2017.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2016.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013.0</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2012.0</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011.0</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2010.0</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2009.0</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008.0</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2007.0</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2006.0</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2005.0</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004.0</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2003.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2002.0</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2001.0</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2000.0</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1999.0</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1998.0</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1997.0</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1996.0</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1995.0</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1994.0</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1993.0</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1992.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1991.0</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1990.0</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1989.0</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1988.0</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1987.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1986.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1985.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>1984.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -385,7 +413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$38</c:f>
+              <c:f>Sheet1!$H$2:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="34"/>
@@ -518,105 +546,96 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>2017.0</c:v>
+                  <c:v>2014.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2016.0</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2015.0</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014.0</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013.0</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2012.0</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011.0</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2010.0</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2009.0</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2008.0</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2007.0</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2006.0</c:v>
+                  <c:v>2003.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2005.0</c:v>
+                  <c:v>2002.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2004.0</c:v>
+                  <c:v>2001.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2003.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2002.0</c:v>
+                  <c:v>1999.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2001.0</c:v>
+                  <c:v>1998.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2000.0</c:v>
+                  <c:v>1997.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1999.0</c:v>
+                  <c:v>1996.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1998.0</c:v>
+                  <c:v>1995.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1997.0</c:v>
+                  <c:v>1994.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1996.0</c:v>
+                  <c:v>1993.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1995.0</c:v>
+                  <c:v>1992.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1994.0</c:v>
+                  <c:v>1991.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1993.0</c:v>
+                  <c:v>1990.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1992.0</c:v>
+                  <c:v>1989.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1991.0</c:v>
+                  <c:v>1988.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1990.0</c:v>
+                  <c:v>1987.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1989.0</c:v>
+                  <c:v>1986.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1988.0</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1987.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1986.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1985.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>1984.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -624,7 +643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$38</c:f>
+              <c:f>Sheet1!$I$2:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="34"/>
@@ -744,11 +763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1174720704"/>
-        <c:axId val="1174723024"/>
+        <c:axId val="1081500608"/>
+        <c:axId val="1081502928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1174720704"/>
+        <c:axId val="1081500608"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -791,7 +810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174723024"/>
+        <c:crossAx val="1081502928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1174723024"/>
+        <c:axId val="1081502928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174720704"/>
+        <c:crossAx val="1081500608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -986,7 +1005,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,115 +1040,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$38</c:f>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2,018 </c:v>
+                  <c:v> 2,017 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2,017 </c:v>
+                  <c:v> 2,016 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2,016 </c:v>
+                  <c:v> 2,015 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2,015 </c:v>
+                  <c:v> 2,014 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2,014 </c:v>
+                  <c:v> 2,013 </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2,013 </c:v>
+                  <c:v> 2,012 </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 2,012 </c:v>
+                  <c:v> 2,011 </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 2,011 </c:v>
+                  <c:v> 2,010 </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 2,010 </c:v>
+                  <c:v> 2,009 </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> 2,009 </c:v>
+                  <c:v> 2,008 </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> 2,008 </c:v>
+                  <c:v> 2,007 </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> 2,007 </c:v>
+                  <c:v> 2,006 </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> 2,006 </c:v>
+                  <c:v> 2,005 </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> 2,005 </c:v>
+                  <c:v> 2,004 </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> 2,004 </c:v>
+                  <c:v> 2,003 </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> 2,003 </c:v>
+                  <c:v> 2,002 </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> 2,002 </c:v>
+                  <c:v> 2,001 </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> 2,001 </c:v>
+                  <c:v> 2,000 </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> 2,000 </c:v>
+                  <c:v> 1,999 </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v> 1,999 </c:v>
+                  <c:v> 1,998 </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v> 1,998 </c:v>
+                  <c:v> 1,997 </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> 1,997 </c:v>
+                  <c:v> 1,996 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v> 1,996 </c:v>
+                  <c:v> 1,995 </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v> 1,995 </c:v>
+                  <c:v> 1,994 </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v> 1,994 </c:v>
+                  <c:v> 1,993 </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v> 1,993 </c:v>
+                  <c:v> 1,992 </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v> 1,992 </c:v>
+                  <c:v> 1,991 </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v> 1,991 </c:v>
+                  <c:v> 1,990 </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v> 1,990 </c:v>
+                  <c:v> 1,989 </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v> 1,989 </c:v>
+                  <c:v> 1,988 </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v> 1,988 </c:v>
+                  <c:v> 1,987 </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v> 1,987 </c:v>
+                  <c:v> 1,986 </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v> 1,986 </c:v>
+                  <c:v> 1,985 </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v> 1,985 </c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v> 1,984 </c:v>
                 </c:pt>
               </c:strCache>
@@ -1137,110 +1153,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.1289819E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.41013476E8</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1289819E8</c:v>
+                  <c:v>3.669211565E9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.41013476E8</c:v>
+                  <c:v>3.915991903E9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.669211565E9</c:v>
+                  <c:v>3.955223955E9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.915991903E9</c:v>
+                  <c:v>4.106758575E9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.955223955E9</c:v>
+                  <c:v>4.02163273E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.106758575E9</c:v>
+                  <c:v>4.129259818E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.02163273E9</c:v>
+                  <c:v>4.345699093E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.129259818E9</c:v>
+                  <c:v>4.497887231E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.345699093E9</c:v>
+                  <c:v>4.487919198E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.497887231E9</c:v>
+                  <c:v>4.393601859E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.487919198E9</c:v>
+                  <c:v>4.3342076E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.393601859E9</c:v>
+                  <c:v>4.422498579E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3342076E9</c:v>
+                  <c:v>4.513450837E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.422498579E9</c:v>
+                  <c:v>4.544135581E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.513450837E9</c:v>
+                  <c:v>4.610049147E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.544135581E9</c:v>
+                  <c:v>4.758326454E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.610049147E9</c:v>
+                  <c:v>4.672219364E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.758326454E9</c:v>
+                  <c:v>4.694695789E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.672219364E9</c:v>
+                  <c:v>4.906569143E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.694695789E9</c:v>
+                  <c:v>4.844679888E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.906569143E9</c:v>
+                  <c:v>4.835869177E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.844679888E9</c:v>
+                  <c:v>4.899130202E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.835869177E9</c:v>
+                  <c:v>4.816213581E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.899130202E9</c:v>
+                  <c:v>4.426775354E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.816213581E9</c:v>
+                  <c:v>4.839449079E9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.426775354E9</c:v>
+                  <c:v>4.946472663E9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.839449079E9</c:v>
+                  <c:v>4.813247201E9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.946472663E9</c:v>
+                  <c:v>4.800262384E9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.813247201E9</c:v>
+                  <c:v>4.725900344E9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.800262384E9</c:v>
+                  <c:v>4.849868427E9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.725900344E9</c:v>
+                  <c:v>4.667657988E9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.849868427E9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.667657988E9</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>4.819143515E9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1253,7 +1269,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1288,115 +1304,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$38</c:f>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2,018 </c:v>
+                  <c:v> 2,017 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2,017 </c:v>
+                  <c:v> 2,016 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2,016 </c:v>
+                  <c:v> 2,015 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2,015 </c:v>
+                  <c:v> 2,014 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2,014 </c:v>
+                  <c:v> 2,013 </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2,013 </c:v>
+                  <c:v> 2,012 </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 2,012 </c:v>
+                  <c:v> 2,011 </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 2,011 </c:v>
+                  <c:v> 2,010 </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 2,010 </c:v>
+                  <c:v> 2,009 </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> 2,009 </c:v>
+                  <c:v> 2,008 </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> 2,008 </c:v>
+                  <c:v> 2,007 </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> 2,007 </c:v>
+                  <c:v> 2,006 </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> 2,006 </c:v>
+                  <c:v> 2,005 </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> 2,005 </c:v>
+                  <c:v> 2,004 </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> 2,004 </c:v>
+                  <c:v> 2,003 </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> 2,003 </c:v>
+                  <c:v> 2,002 </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> 2,002 </c:v>
+                  <c:v> 2,001 </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> 2,001 </c:v>
+                  <c:v> 2,000 </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> 2,000 </c:v>
+                  <c:v> 1,999 </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v> 1,999 </c:v>
+                  <c:v> 1,998 </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v> 1,998 </c:v>
+                  <c:v> 1,997 </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> 1,997 </c:v>
+                  <c:v> 1,996 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v> 1,996 </c:v>
+                  <c:v> 1,995 </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v> 1,995 </c:v>
+                  <c:v> 1,994 </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v> 1,994 </c:v>
+                  <c:v> 1,993 </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v> 1,993 </c:v>
+                  <c:v> 1,992 </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v> 1,992 </c:v>
+                  <c:v> 1,991 </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v> 1,991 </c:v>
+                  <c:v> 1,990 </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v> 1,990 </c:v>
+                  <c:v> 1,989 </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v> 1,989 </c:v>
+                  <c:v> 1,988 </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v> 1,988 </c:v>
+                  <c:v> 1,987 </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v> 1,987 </c:v>
+                  <c:v> 1,986 </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v> 1,986 </c:v>
+                  <c:v> 1,985 </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v> 1,985 </c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v> 1,984 </c:v>
                 </c:pt>
               </c:strCache>
@@ -1404,110 +1417,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$38</c:f>
+              <c:f>Sheet1!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>36787.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151501.0</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>36787.0</c:v>
+                  <c:v>5.7024178E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151501.0</c:v>
+                  <c:v>5.93254604E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7024178E8</c:v>
+                  <c:v>5.92598072E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.93254604E8</c:v>
+                  <c:v>6.80554131E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.92598072E8</c:v>
+                  <c:v>6.29143328E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.80554131E8</c:v>
+                  <c:v>7.00712509E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.29143328E8</c:v>
+                  <c:v>7.05716607E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.00712509E8</c:v>
+                  <c:v>7.26702705E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.05716607E8</c:v>
+                  <c:v>5.69252731E8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.26702705E8</c:v>
+                  <c:v>5.27133638E8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.69252731E8</c:v>
+                  <c:v>6.46795446E8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.27133638E8</c:v>
+                  <c:v>5.81744959E8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.46795446E8</c:v>
+                  <c:v>5.95981325E8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.81744959E8</c:v>
+                  <c:v>6.42549028E8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.95981325E8</c:v>
+                  <c:v>6.32380718E8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.42549028E8</c:v>
+                  <c:v>6.19004402E8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.32380718E8</c:v>
+                  <c:v>6.91078963E8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.19004402E8</c:v>
+                  <c:v>7.03349872E8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.91078963E8</c:v>
+                  <c:v>8.19283561E8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.03349872E8</c:v>
+                  <c:v>8.35008288E8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.19283561E8</c:v>
+                  <c:v>1.032270191E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.35008288E8</c:v>
+                  <c:v>1.137522514E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.032270191E9</c:v>
+                  <c:v>1.113820171E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.137522514E9</c:v>
+                  <c:v>1.107336181E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.113820171E9</c:v>
+                  <c:v>1.151829064E9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.107336181E9</c:v>
+                  <c:v>1.115941849E9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.151829064E9</c:v>
+                  <c:v>1.04083206E9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.115941849E9</c:v>
+                  <c:v>1.062556946E9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.04083206E9</c:v>
+                  <c:v>1.10239689E9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.062556946E9</c:v>
+                  <c:v>1.297310988E9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.10239689E9</c:v>
+                  <c:v>1.327005888E9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.297310988E9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.327005888E9</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>1.415112832E9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1520,7 +1533,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1555,115 +1568,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$38</c:f>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2,018 </c:v>
+                  <c:v> 2,017 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2,017 </c:v>
+                  <c:v> 2,016 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2,016 </c:v>
+                  <c:v> 2,015 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2,015 </c:v>
+                  <c:v> 2,014 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2,014 </c:v>
+                  <c:v> 2,013 </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2,013 </c:v>
+                  <c:v> 2,012 </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 2,012 </c:v>
+                  <c:v> 2,011 </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 2,011 </c:v>
+                  <c:v> 2,010 </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 2,010 </c:v>
+                  <c:v> 2,009 </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> 2,009 </c:v>
+                  <c:v> 2,008 </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> 2,008 </c:v>
+                  <c:v> 2,007 </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> 2,007 </c:v>
+                  <c:v> 2,006 </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> 2,006 </c:v>
+                  <c:v> 2,005 </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> 2,005 </c:v>
+                  <c:v> 2,004 </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> 2,004 </c:v>
+                  <c:v> 2,003 </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> 2,003 </c:v>
+                  <c:v> 2,002 </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> 2,002 </c:v>
+                  <c:v> 2,001 </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> 2,001 </c:v>
+                  <c:v> 2,000 </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> 2,000 </c:v>
+                  <c:v> 1,999 </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v> 1,999 </c:v>
+                  <c:v> 1,998 </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v> 1,998 </c:v>
+                  <c:v> 1,997 </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> 1,997 </c:v>
+                  <c:v> 1,996 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v> 1,996 </c:v>
+                  <c:v> 1,995 </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v> 1,995 </c:v>
+                  <c:v> 1,994 </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v> 1,994 </c:v>
+                  <c:v> 1,993 </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v> 1,993 </c:v>
+                  <c:v> 1,992 </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v> 1,992 </c:v>
+                  <c:v> 1,991 </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v> 1,991 </c:v>
+                  <c:v> 1,990 </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v> 1,990 </c:v>
+                  <c:v> 1,989 </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v> 1,989 </c:v>
+                  <c:v> 1,988 </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v> 1,988 </c:v>
+                  <c:v> 1,987 </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v> 1,987 </c:v>
+                  <c:v> 1,986 </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v> 1,986 </c:v>
+                  <c:v> 1,985 </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v> 1,985 </c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v> 1,984 </c:v>
                 </c:pt>
               </c:strCache>
@@ -1671,110 +1681,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$38</c:f>
+              <c:f>Sheet1!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.853842E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.490145E6</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.853842E6</c:v>
+                  <c:v>6.03794296E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.490145E6</c:v>
+                  <c:v>7.243682E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.03794296E8</c:v>
+                  <c:v>7.24365175E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.243682E8</c:v>
+                  <c:v>7.16807617E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.24365175E8</c:v>
+                  <c:v>7.48353836E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.16807617E8</c:v>
+                  <c:v>7.12042188E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.48353836E8</c:v>
+                  <c:v>7.23813489E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.12042188E8</c:v>
+                  <c:v>8.15885939E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.23813489E8</c:v>
+                  <c:v>8.68992414E8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.15885939E8</c:v>
+                  <c:v>9.80298694E8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.68992414E8</c:v>
+                  <c:v>1.001742028E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.80298694E8</c:v>
+                  <c:v>1.071923782E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.001742028E9</c:v>
+                  <c:v>1.150501383E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.071923782E9</c:v>
+                  <c:v>1.169368079E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.150501383E9</c:v>
+                  <c:v>1.159949976E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.169368079E9</c:v>
+                  <c:v>1.157415311E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.159949976E9</c:v>
+                  <c:v>1.110879753E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.157415311E9</c:v>
+                  <c:v>1.075970755E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.110879753E9</c:v>
+                  <c:v>1.061651204E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.075970755E9</c:v>
+                  <c:v>1.129189038E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.061651204E9</c:v>
+                  <c:v>1.079064993E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.129189038E9</c:v>
+                  <c:v>1.044228833E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.079064993E9</c:v>
+                  <c:v>1.070118181E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.044228833E9</c:v>
+                  <c:v>1.057463815E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.070118181E9</c:v>
+                  <c:v>1.082809618E9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.057463815E9</c:v>
+                  <c:v>1.129963962E9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.082809618E9</c:v>
+                  <c:v>1.128918834E9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.129963962E9</c:v>
+                  <c:v>1.088157041E9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.128918834E9</c:v>
+                  <c:v>1.070945741E9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.088157041E9</c:v>
+                  <c:v>1.052575516E9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.070945741E9</c:v>
+                  <c:v>9.67890139E8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.052575516E9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.67890139E8</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>9.46465032E8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1787,7 +1797,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1822,115 +1832,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$38</c:f>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2,018 </c:v>
+                  <c:v> 2,017 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2,017 </c:v>
+                  <c:v> 2,016 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2,016 </c:v>
+                  <c:v> 2,015 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2,015 </c:v>
+                  <c:v> 2,014 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2,014 </c:v>
+                  <c:v> 2,013 </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2,013 </c:v>
+                  <c:v> 2,012 </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 2,012 </c:v>
+                  <c:v> 2,011 </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 2,011 </c:v>
+                  <c:v> 2,010 </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 2,010 </c:v>
+                  <c:v> 2,009 </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> 2,009 </c:v>
+                  <c:v> 2,008 </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> 2,008 </c:v>
+                  <c:v> 2,007 </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> 2,007 </c:v>
+                  <c:v> 2,006 </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> 2,006 </c:v>
+                  <c:v> 2,005 </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> 2,005 </c:v>
+                  <c:v> 2,004 </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> 2,004 </c:v>
+                  <c:v> 2,003 </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> 2,003 </c:v>
+                  <c:v> 2,002 </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> 2,002 </c:v>
+                  <c:v> 2,001 </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> 2,001 </c:v>
+                  <c:v> 2,000 </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> 2,000 </c:v>
+                  <c:v> 1,999 </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v> 1,999 </c:v>
+                  <c:v> 1,998 </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v> 1,998 </c:v>
+                  <c:v> 1,997 </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> 1,997 </c:v>
+                  <c:v> 1,996 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v> 1,996 </c:v>
+                  <c:v> 1,995 </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v> 1,995 </c:v>
+                  <c:v> 1,994 </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v> 1,994 </c:v>
+                  <c:v> 1,993 </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v> 1,993 </c:v>
+                  <c:v> 1,992 </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v> 1,992 </c:v>
+                  <c:v> 1,991 </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v> 1,991 </c:v>
+                  <c:v> 1,990 </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v> 1,990 </c:v>
+                  <c:v> 1,989 </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v> 1,989 </c:v>
+                  <c:v> 1,988 </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v> 1,988 </c:v>
+                  <c:v> 1,987 </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v> 1,987 </c:v>
+                  <c:v> 1,986 </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v> 1,986 </c:v>
+                  <c:v> 1,985 </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v> 1,985 </c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v> 1,984 </c:v>
                 </c:pt>
               </c:strCache>
@@ -1938,110 +1945,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$38</c:f>
+              <c:f>Sheet1!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7.151204E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7756814E7</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.151204E6</c:v>
+                  <c:v>1.68839894E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7756814E7</c:v>
+                  <c:v>1.57842071E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.68839894E8</c:v>
+                  <c:v>1.53349946E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.57842071E8</c:v>
+                  <c:v>1.28649934E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.53349946E8</c:v>
+                  <c:v>1.23144856E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.28649934E8</c:v>
+                  <c:v>7.4061987E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.23144856E8</c:v>
+                  <c:v>6.0923546E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4061987E7</c:v>
+                  <c:v>5.8662219E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0923546E7</c:v>
+                  <c:v>5.8164696E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8662219E7</c:v>
+                  <c:v>4.1827906E7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8164696E7</c:v>
+                  <c:v>4.0167028E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1827906E7</c:v>
+                  <c:v>4.0352756E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0167028E7</c:v>
+                  <c:v>3.94152E7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0352756E7</c:v>
+                  <c:v>3.6350775E7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.94152E7</c:v>
+                  <c:v>1.7280611E7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6350775E7</c:v>
+                  <c:v>1.4553265E7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7280611E7</c:v>
+                  <c:v>1.5180641E7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4553265E7</c:v>
+                  <c:v>1.7031651E7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5180641E7</c:v>
+                  <c:v>1.1547119E7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7031651E7</c:v>
+                  <c:v>1.2805793E7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1547119E7</c:v>
+                  <c:v>1.1495084E7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2805793E7</c:v>
+                  <c:v>5.494096E6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1495084E7</c:v>
+                  <c:v>3.506093E6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.494096E6</c:v>
+                  <c:v>2.242393E6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.506093E6</c:v>
+                  <c:v>1.016469E6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.242393E6</c:v>
+                  <c:v>869694.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.016469E6</c:v>
+                  <c:v>637530.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>869694.0</c:v>
+                  <c:v>565778.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>637530.0</c:v>
+                  <c:v>2.706244E6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>565778.0</c:v>
+                  <c:v>8.927669E6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.706244E6</c:v>
+                  <c:v>9.973418E6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.927669E6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.973418E6</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>1.6380199E7</c:v>
                 </c:pt>
               </c:numCache>
@@ -2054,7 +2061,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2089,115 +2096,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$38</c:f>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2,018 </c:v>
+                  <c:v> 2,017 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2,017 </c:v>
+                  <c:v> 2,016 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2,016 </c:v>
+                  <c:v> 2,015 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2,015 </c:v>
+                  <c:v> 2,014 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2,014 </c:v>
+                  <c:v> 2,013 </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2,013 </c:v>
+                  <c:v> 2,012 </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 2,012 </c:v>
+                  <c:v> 2,011 </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 2,011 </c:v>
+                  <c:v> 2,010 </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 2,010 </c:v>
+                  <c:v> 2,009 </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> 2,009 </c:v>
+                  <c:v> 2,008 </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> 2,008 </c:v>
+                  <c:v> 2,007 </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> 2,007 </c:v>
+                  <c:v> 2,006 </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> 2,006 </c:v>
+                  <c:v> 2,005 </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> 2,005 </c:v>
+                  <c:v> 2,004 </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> 2,004 </c:v>
+                  <c:v> 2,003 </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> 2,003 </c:v>
+                  <c:v> 2,002 </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> 2,002 </c:v>
+                  <c:v> 2,001 </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> 2,001 </c:v>
+                  <c:v> 2,000 </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> 2,000 </c:v>
+                  <c:v> 1,999 </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v> 1,999 </c:v>
+                  <c:v> 1,998 </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v> 1,998 </c:v>
+                  <c:v> 1,997 </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> 1,997 </c:v>
+                  <c:v> 1,996 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v> 1,996 </c:v>
+                  <c:v> 1,995 </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v> 1,995 </c:v>
+                  <c:v> 1,994 </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v> 1,994 </c:v>
+                  <c:v> 1,993 </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v> 1,993 </c:v>
+                  <c:v> 1,992 </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v> 1,992 </c:v>
+                  <c:v> 1,991 </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v> 1,991 </c:v>
+                  <c:v> 1,990 </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v> 1,990 </c:v>
+                  <c:v> 1,989 </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v> 1,989 </c:v>
+                  <c:v> 1,988 </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v> 1,988 </c:v>
+                  <c:v> 1,987 </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v> 1,987 </c:v>
+                  <c:v> 1,986 </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v> 1,986 </c:v>
+                  <c:v> 1,985 </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v> 1,985 </c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v> 1,984 </c:v>
                 </c:pt>
               </c:strCache>
@@ -2205,110 +2209,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$38</c:f>
+              <c:f>Sheet1!$F$2:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>976432.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.739159E6</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>976432.0</c:v>
+                  <c:v>3.2145753E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.739159E6</c:v>
+                  <c:v>3.0494295E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2145753E7</c:v>
+                  <c:v>2.9853282E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0494295E7</c:v>
+                  <c:v>2.5287736E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9853282E7</c:v>
+                  <c:v>2.3849805E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5287736E7</c:v>
+                  <c:v>2.0960728E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3849805E7</c:v>
+                  <c:v>1.8674525E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0960728E7</c:v>
+                  <c:v>1.8269544E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8674525E7</c:v>
+                  <c:v>1.783284E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8269544E7</c:v>
+                  <c:v>1.4560005E7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.783284E7</c:v>
+                  <c:v>1.4145415E7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4560005E7</c:v>
+                  <c:v>1.0346558E7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4145415E7</c:v>
+                  <c:v>9.822431E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0346558E7</c:v>
+                  <c:v>9.473016E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.822431E6</c:v>
+                  <c:v>7.67414E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.473016E6</c:v>
+                  <c:v>7.382825E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.67414E6</c:v>
+                  <c:v>8.068896E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.382825E6</c:v>
+                  <c:v>6.822495E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.068896E6</c:v>
+                  <c:v>6.680438E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.822495E6</c:v>
+                  <c:v>4.80848E6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.680438E6</c:v>
+                  <c:v>4.24444E6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.80848E6</c:v>
+                  <c:v>1.282124E6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.24444E6</c:v>
+                  <c:v>686558.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.282124E6</c:v>
+                  <c:v>529909.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>686558.0</c:v>
+                  <c:v>484467.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>529909.0</c:v>
+                  <c:v>280614.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>484467.0</c:v>
+                  <c:v>113386.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>280614.0</c:v>
+                  <c:v>5.6664426E7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>113386.0</c:v>
+                  <c:v>36550.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.6664426E7</c:v>
+                  <c:v>14750.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36550.0</c:v>
+                  <c:v>5785.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14750.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5785.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>317.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2321,7 +2325,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2356,115 +2360,112 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$38</c:f>
+              <c:f>Sheet1!$A$1:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Year</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2,018 </c:v>
+                  <c:v> 2,017 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2,017 </c:v>
+                  <c:v> 2,016 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2,016 </c:v>
+                  <c:v> 2,015 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2,015 </c:v>
+                  <c:v> 2,014 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 2,014 </c:v>
+                  <c:v> 2,013 </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> 2,013 </c:v>
+                  <c:v> 2,012 </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> 2,012 </c:v>
+                  <c:v> 2,011 </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> 2,011 </c:v>
+                  <c:v> 2,010 </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> 2,010 </c:v>
+                  <c:v> 2,009 </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> 2,009 </c:v>
+                  <c:v> 2,008 </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> 2,008 </c:v>
+                  <c:v> 2,007 </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> 2,007 </c:v>
+                  <c:v> 2,006 </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> 2,006 </c:v>
+                  <c:v> 2,005 </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> 2,005 </c:v>
+                  <c:v> 2,004 </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> 2,004 </c:v>
+                  <c:v> 2,003 </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> 2,003 </c:v>
+                  <c:v> 2,002 </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> 2,002 </c:v>
+                  <c:v> 2,001 </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> 2,001 </c:v>
+                  <c:v> 2,000 </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v> 2,000 </c:v>
+                  <c:v> 1,999 </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v> 1,999 </c:v>
+                  <c:v> 1,998 </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v> 1,998 </c:v>
+                  <c:v> 1,997 </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v> 1,997 </c:v>
+                  <c:v> 1,996 </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v> 1,996 </c:v>
+                  <c:v> 1,995 </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v> 1,995 </c:v>
+                  <c:v> 1,994 </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v> 1,994 </c:v>
+                  <c:v> 1,993 </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v> 1,993 </c:v>
+                  <c:v> 1,992 </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v> 1,992 </c:v>
+                  <c:v> 1,991 </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v> 1,991 </c:v>
+                  <c:v> 1,990 </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v> 1,990 </c:v>
+                  <c:v> 1,989 </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v> 1,989 </c:v>
+                  <c:v> 1,988 </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v> 1,988 </c:v>
+                  <c:v> 1,987 </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v> 1,987 </c:v>
+                  <c:v> 1,986 </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v> 1,986 </c:v>
+                  <c:v> 1,985 </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v> 1,985 </c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v> 1,984 </c:v>
                 </c:pt>
               </c:strCache>
@@ -2472,110 +2473,110 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$38</c:f>
+              <c:f>Sheet1!$G$2:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>642108.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.684483E6</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>642108.0</c:v>
+                  <c:v>8.4762962E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.684483E6</c:v>
+                  <c:v>9.25318166E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4762962E8</c:v>
+                  <c:v>9.24712042E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.25318166E8</c:v>
+                  <c:v>8.93916021E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.24712042E8</c:v>
+                  <c:v>7.71622081E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.93916021E8</c:v>
+                  <c:v>7.68055717E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.71622081E8</c:v>
+                  <c:v>7.31460079E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.68055717E8</c:v>
+                  <c:v>8.48380458E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.31460079E8</c:v>
+                  <c:v>1.058937122E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.48380458E8</c:v>
+                  <c:v>1.017073793E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.058937122E9</c:v>
+                  <c:v>8.59684619E8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.017073793E9</c:v>
+                  <c:v>8.29496488E8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59684619E8</c:v>
+                  <c:v>8.28796576E8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.29496488E8</c:v>
+                  <c:v>7.81818482E8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.28796576E8</c:v>
+                  <c:v>8.07554844E8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.81818482E8</c:v>
+                  <c:v>4.90075986E8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.07554844E8</c:v>
+                  <c:v>4.97135473E8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.90075986E8</c:v>
+                  <c:v>4.64505003E8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.97135473E8</c:v>
+                  <c:v>5.10116943E8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.64505003E8</c:v>
+                  <c:v>4.82396037E8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.10116943E8</c:v>
+                  <c:v>4.24839325E8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.82396037E8</c:v>
+                  <c:v>4.8216375E8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.24839325E8</c:v>
+                  <c:v>5.03380443E8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.8216375E8</c:v>
+                  <c:v>5.47739112E8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.03380443E8</c:v>
+                  <c:v>5.56190087E8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.47739112E8</c:v>
+                  <c:v>5.91397448E8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.56190087E8</c:v>
+                  <c:v>6.04525473E8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.91397448E8</c:v>
+                  <c:v>5.67271367E8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.04525473E8</c:v>
+                  <c:v>6.08499359E8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.67271367E8</c:v>
+                  <c:v>5.90756444E8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.08499359E8</c:v>
+                  <c:v>5.07173824E8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.90756444E8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.07173824E8</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>6.13490678E8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2593,11 +2594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1182646688"/>
-        <c:axId val="1182578688"/>
+        <c:axId val="1082030752"/>
+        <c:axId val="1082032800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1182646688"/>
+        <c:axId val="1082030752"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2640,7 +2641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1182578688"/>
+        <c:crossAx val="1082032800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2648,7 +2649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1182578688"/>
+        <c:axId val="1082032800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1182646688"/>
+        <c:crossAx val="1082030752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4209,7 +4210,7 @@
   <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="67" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4226,1191 +4227,1259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="4">
+        <v>112898190</v>
+      </c>
+      <c r="C2" s="4">
+        <v>36787</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1853842</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7151204</v>
+      </c>
+      <c r="F2" s="4">
+        <v>976432</v>
+      </c>
+      <c r="G2" s="4">
+        <v>642108</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3040143</v>
+      </c>
+      <c r="I2" s="4">
+        <v>29141</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4048091</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7">
+        <f>A2-1</f>
+        <v>2016</v>
+      </c>
+      <c r="B3" s="4">
+        <v>141013476</v>
+      </c>
+      <c r="C3" s="4">
+        <v>151501</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7490145</v>
+      </c>
+      <c r="E3" s="4">
+        <v>17756814</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1739159</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1684483</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2209690</v>
+      </c>
+      <c r="I3" s="4">
+        <v>57905</v>
+      </c>
+      <c r="J3" s="4">
+        <v>6125640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <f t="shared" ref="A4:A35" si="0">A3-1</f>
+        <v>2015</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3669211565</v>
+      </c>
+      <c r="C4" s="4">
+        <v>570241780</v>
+      </c>
+      <c r="D4" s="4">
+        <v>603794296</v>
+      </c>
+      <c r="E4" s="4">
+        <v>168839894</v>
+      </c>
+      <c r="F4" s="4">
+        <v>32145753</v>
+      </c>
+      <c r="G4" s="4">
+        <v>847629620</v>
+      </c>
+      <c r="H4" s="4">
+        <v>310558359</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3611505</v>
+      </c>
+      <c r="J4" s="4">
+        <v>189406005</v>
+      </c>
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2018</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <f>A4-1</f>
-        <v>2017</v>
-      </c>
-      <c r="B5" s="4">
-        <v>112898190</v>
-      </c>
-      <c r="C5" s="4">
-        <v>36787</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1853842</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7151204</v>
-      </c>
-      <c r="F5" s="4">
-        <v>976432</v>
-      </c>
-      <c r="G5" s="4">
-        <v>642108</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3040143</v>
-      </c>
-      <c r="I5" s="4">
-        <v>29141</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4048091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <f t="shared" ref="A6:A69" si="0">A5-1</f>
-        <v>2016</v>
-      </c>
-      <c r="B6" s="4">
-        <v>141013476</v>
-      </c>
-      <c r="C6" s="4">
-        <v>151501</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7490145</v>
-      </c>
-      <c r="E6" s="4">
-        <v>17756814</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1739159</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1684483</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2209690</v>
-      </c>
-      <c r="I6" s="4">
-        <v>57905</v>
-      </c>
-      <c r="J6" s="4">
-        <v>6125640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3669211565</v>
-      </c>
-      <c r="C7" s="4">
-        <v>570241780</v>
-      </c>
-      <c r="D7" s="4">
-        <v>603794296</v>
-      </c>
-      <c r="E7" s="4">
-        <v>168839894</v>
-      </c>
-      <c r="F7" s="4">
-        <v>32145753</v>
-      </c>
-      <c r="G7" s="4">
-        <v>847629620</v>
-      </c>
-      <c r="H7" s="4">
-        <v>310558359</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3611505</v>
-      </c>
-      <c r="J7" s="4">
-        <v>189406005</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B5" s="4">
         <v>3915991903</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C5" s="4">
         <v>593254604</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D5" s="4">
         <v>724368200</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E5" s="4">
         <v>157842071</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F5" s="4">
         <v>30494295</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G5" s="4">
         <v>925318166</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H5" s="4">
         <v>82241820</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I5" s="4">
         <v>3902444</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J5" s="4">
         <v>149429534</v>
       </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B6" s="4">
         <v>3955223955</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C6" s="4">
         <v>592598072</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D6" s="4">
         <v>724365175</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E6" s="4">
         <v>153349946</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F6" s="4">
         <v>29853282</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G6" s="4">
         <v>924712042</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H6" s="4">
         <v>81827074</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I6" s="4">
         <v>3887149</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J6" s="4">
         <v>147200976</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B7" s="4">
         <v>4106758575</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C7" s="4">
         <v>680554131</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D7" s="4">
         <v>716807617</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E7" s="4">
         <v>128649934</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F7" s="4">
         <v>25287736</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G7" s="4">
         <v>893916021</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H7" s="4">
         <v>119240171</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I7" s="4">
         <v>4219099</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J7" s="4">
         <v>121203365</v>
       </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B8" s="4">
         <v>4021632730</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C8" s="4">
         <v>629143328</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D8" s="4">
         <v>748353836</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E8" s="4">
         <v>123144856</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F8" s="4">
         <v>23849805</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G8" s="4">
         <v>771622081</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H8" s="4">
         <v>107566361</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I8" s="4">
         <v>3831826</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J8" s="4">
         <v>116335663</v>
       </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B9" s="4">
         <v>4129259818</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C9" s="4">
         <v>700712509</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D9" s="4">
         <v>712042188</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E9" s="4">
         <v>74061987</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F9" s="4">
         <v>20960728</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G9" s="4">
         <v>768055717</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H9" s="4">
         <v>90572849</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I9" s="4">
         <v>4275858</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J9" s="4">
         <v>124287186</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B10" s="4">
         <v>4345699093</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C10" s="4">
         <v>705716607</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D10" s="4">
         <v>723813489</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E10" s="4">
         <v>60923546</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F10" s="4">
         <v>18674525</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G10" s="4">
         <v>731460079</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H10" s="4">
         <v>61625695</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I10" s="4">
         <v>4117287</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J10" s="4">
         <v>103009831</v>
       </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B11" s="4">
         <v>4497887231</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C11" s="4">
         <v>726702705</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D11" s="4">
         <v>815885939</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E11" s="4">
         <v>58662219</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F11" s="4">
         <v>18269544</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G11" s="4">
         <v>848380458</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H11" s="4">
         <v>54921450</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I11" s="4">
         <v>6019292</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J11" s="4">
         <v>19976295</v>
       </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B12" s="4">
         <v>4487919198</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C12" s="4">
         <v>569252731</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D12" s="4">
         <v>868992414</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E12" s="4">
         <v>58164696</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F12" s="4">
         <v>17832840</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G12" s="4">
         <v>1058937122</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H12" s="4">
         <v>53684221</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I12" s="4">
         <v>6165599</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J12" s="4">
         <v>18846714</v>
       </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B13" s="4">
         <v>4393601859</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C13" s="4">
         <v>527133638</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D13" s="4">
         <v>980298694</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E13" s="4">
         <v>41827906</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F13" s="4">
         <v>14560005</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G13" s="4">
         <v>1017073793</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H13" s="4">
         <v>35493917</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I13" s="4">
         <v>5870534</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J13" s="4">
         <v>22176585</v>
       </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B14" s="4">
         <v>4334207600</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C14" s="4">
         <v>646795446</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D14" s="4">
         <v>1001742028</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E14" s="4">
         <v>40167028</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F14" s="4">
         <v>14145415</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G14" s="4">
         <v>859684619</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H14" s="4">
         <v>26647026</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I14" s="4">
         <v>6038241</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J14" s="4">
         <v>15311041</v>
       </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B15" s="4">
         <v>4422498579</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C15" s="4">
         <v>581744959</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D15" s="4">
         <v>1071923782</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E15" s="4">
         <v>40352756</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F15" s="4">
         <v>10346558</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G15" s="4">
         <v>829496488</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H15" s="4">
         <v>24381258</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I15" s="4">
         <v>6028604</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J15" s="4">
         <v>17421147</v>
       </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B16" s="4">
         <v>4513450837</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C16" s="4">
         <v>595981325</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D16" s="4">
         <v>1150501383</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E16" s="4">
         <v>39415200</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F16" s="4">
         <v>9822431</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G16" s="4">
         <v>828796576</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H16" s="4">
         <v>23937141</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I16" s="4">
         <v>5015549</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J16" s="4">
         <v>30850244</v>
       </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B17" s="4">
         <v>4544135581</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C17" s="4">
         <v>642549028</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D17" s="4">
         <v>1169368079</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E17" s="4">
         <v>36350775</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F17" s="4">
         <v>9473016</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G17" s="4">
         <v>781818482</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H17" s="4">
         <v>31935259</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I17" s="4">
         <v>6546057</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J17" s="4">
         <v>53290370</v>
       </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B18" s="4">
         <v>4610049147</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C18" s="4">
         <v>632380718</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D18" s="4">
         <v>1159949976</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E18" s="4">
         <v>17280611</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F18" s="4">
         <v>7674140</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G18" s="4">
         <v>807554844</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H18" s="4">
         <v>26008406</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I18" s="4">
         <v>6127815</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J18" s="4">
         <v>27494006</v>
       </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B19" s="4">
         <v>4758326454</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C19" s="4">
         <v>619004402</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D19" s="4">
         <v>1157415311</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E19" s="4">
         <v>14553265</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F19" s="4">
         <v>7382825</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G19" s="4">
         <v>490075986</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H19" s="4">
         <v>25465496</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I19" s="4">
         <v>5682786</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J19" s="4">
         <v>348641619</v>
       </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B20" s="4">
         <v>4672219364</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C20" s="4">
         <v>691078963</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D20" s="4">
         <v>1110879753</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E20" s="4">
         <v>15180641</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F20" s="4">
         <v>8068896</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G20" s="4">
         <v>497135473</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H20" s="4">
         <v>29188396</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I20" s="4">
         <v>6628306</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J20" s="4">
         <v>385044490</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L20" s="1">
         <v>449585</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M20" s="1">
         <v>144402</v>
       </c>
-      <c r="N23">
-        <f>L23/M23</f>
+      <c r="N20">
+        <f>L20/M20</f>
         <v>3.1134264068364703</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B21" s="4">
         <v>4694695789</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C21" s="4">
         <v>703349872</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D21" s="4">
         <v>1075970755</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E21" s="4">
         <v>17031651</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F21" s="4">
         <v>6822495</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G21" s="4">
         <v>464505003</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H21" s="4">
         <v>25722337</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I21" s="4">
         <v>6752323</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J21" s="4">
         <v>335926409</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L21" s="1">
         <v>375435</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M21" s="1">
         <v>149083</v>
       </c>
-      <c r="N24">
-        <f>L24/M24</f>
+      <c r="N21">
+        <f>L21/M21</f>
         <v>2.5182951778539473</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B22" s="4">
         <v>4906569143</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C22" s="4">
         <v>819283561</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D22" s="4">
         <v>1061651204</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E22" s="4">
         <v>11547119</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F22" s="4">
         <v>6680438</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G22" s="4">
         <v>510116943</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H22" s="4">
         <v>31570175</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I22" s="4">
         <v>10477781</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J22" s="4">
         <v>282709496</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B23" s="4">
         <v>4844679888</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C23" s="4">
         <v>835008288</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D23" s="4">
         <v>1129189038</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E23" s="4">
         <v>12805793</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F23" s="4">
         <v>4808480</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G23" s="4">
         <v>482396037</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H23" s="4">
         <v>37997546</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I23" s="4">
         <v>12261162</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J23" s="4">
         <v>267753809</v>
       </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>1995</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B24" s="5">
         <v>4835869177</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C24" s="5">
         <v>1032270191</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D24" s="5">
         <v>1079064993</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E24" s="5">
         <v>11495084</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F24" s="5">
         <v>4244440</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G24" s="5">
         <v>424839325</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H24" s="5">
         <v>70648227</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I24" s="5">
         <v>13703429</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J24" s="5">
         <v>157354871</v>
       </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B25" s="4">
         <v>4899130202</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C25" s="4">
         <v>1137522514</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D25" s="4">
         <v>1044228833</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E25" s="4">
         <v>5494096</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F25" s="4">
         <v>1282124</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G25" s="4">
         <v>482163750</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H25" s="4">
         <v>32974874</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I25" s="4">
         <v>11002834</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J25" s="4">
         <v>178376525</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L25" s="1">
         <v>682399</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M25" s="1">
         <v>139257</v>
       </c>
-      <c r="N28">
-        <f>L28/M28</f>
+      <c r="N25">
+        <f>L25/M25</f>
         <v>4.9002850844122738</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B26" s="4">
         <v>4816213581</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C26" s="4">
         <v>1113820171</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D26" s="4">
         <v>1070118181</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E26" s="4">
         <v>3506093</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F26" s="4">
         <v>686558</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G26" s="4">
         <v>503380443</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H26" s="4">
         <v>31564523</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I26" s="4">
         <v>10962066</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J26" s="4">
         <v>157723288</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L26" s="1">
         <v>722201</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M26" s="1">
         <v>129087</v>
       </c>
-      <c r="N29">
-        <f>L29/M29</f>
+      <c r="N26">
+        <f>L26/M26</f>
         <v>5.5946842052259331</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B27" s="4">
         <v>4426775354</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C27" s="4">
         <v>1107336181</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D27" s="4">
         <v>1057463815</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E27" s="4">
         <v>2242393</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F27" s="4">
         <v>529909</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G27" s="4">
         <v>547739112</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H27" s="4">
         <v>33384990</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I27" s="4">
         <v>12500013</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J27" s="4">
         <v>98205344</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L27" s="1">
         <v>719873</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M27" s="1">
         <v>137264</v>
       </c>
-      <c r="N30">
-        <f t="shared" ref="N30:N42" si="1">L30/M30</f>
+      <c r="N27">
+        <f t="shared" ref="N27:N39" si="1">L27/M27</f>
         <v>5.2444413684578626</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B28" s="4">
         <v>4839449079</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C28" s="4">
         <v>1151829064</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D28" s="4">
         <v>1082809618</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E28" s="4">
         <v>1016469</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F28" s="4">
         <v>484467</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G28" s="4">
         <v>556190087</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H28" s="4">
         <v>35389496</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I28" s="4">
         <v>11459644</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J28" s="4">
         <v>66172265</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L28" s="1">
         <v>647500</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M28" s="1">
         <v>108602</v>
       </c>
-      <c r="N31">
+      <c r="N28">
         <f t="shared" si="1"/>
         <v>5.962136977219572</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B29" s="4">
         <v>4946472663</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C29" s="4">
         <v>1115941849</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D29" s="4">
         <v>1129963962</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E29" s="4">
         <v>869694</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F29" s="4">
         <v>280614</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G29" s="4">
         <v>591397448</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H29" s="4">
         <v>34928380</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I29" s="4">
         <v>10040942</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J29" s="4">
         <v>43693946</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L29" s="1">
         <v>612282</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M29" s="1">
         <v>110627</v>
       </c>
-      <c r="N32">
+      <c r="N29">
         <f t="shared" si="1"/>
         <v>5.5346524808591031</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B30" s="4">
         <v>4813247201</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C30" s="4">
         <v>1040832060</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D30" s="4">
         <v>1128918834</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E30" s="4">
         <v>637530</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F30" s="4">
         <v>113386</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G30" s="4">
         <v>604525473</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H30" s="4">
         <v>33745777</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I30" s="4">
         <v>9092356</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J30" s="4">
         <v>43758420</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L30" s="1">
         <v>539278</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M30" s="1">
         <v>96648</v>
       </c>
-      <c r="N33">
+      <c r="N30">
         <f t="shared" si="1"/>
         <v>5.5798154126314046</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
+      <c r="B31" s="4">
+        <v>4800262384</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1062556946</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1088157041</v>
+      </c>
+      <c r="E31" s="4">
+        <v>565778</v>
+      </c>
+      <c r="F31" s="4">
+        <v>56664426</v>
+      </c>
+      <c r="G31" s="4">
+        <v>567271367</v>
+      </c>
+      <c r="H31" s="4">
+        <v>33626976</v>
+      </c>
+      <c r="I31" s="4">
+        <v>8354749</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="N31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="B32" s="4">
+        <v>4725900344</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1102396890</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1070945741</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2706244</v>
+      </c>
+      <c r="F32" s="4">
+        <v>36550</v>
+      </c>
+      <c r="G32" s="4">
+        <v>608499359</v>
+      </c>
+      <c r="H32" s="4">
+        <v>36571818</v>
+      </c>
+      <c r="I32" s="4">
+        <v>9062932</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="N32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4849868427</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1297310988</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1052575516</v>
+      </c>
+      <c r="E33" s="4">
+        <v>8927669</v>
+      </c>
+      <c r="F33" s="4">
+        <v>14750</v>
+      </c>
+      <c r="G33" s="4">
+        <v>590756444</v>
+      </c>
+      <c r="H33" s="4">
+        <v>35256936</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5562830</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="N33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
       <c r="B34" s="4">
-        <v>4800262384</v>
+        <v>4667657988</v>
       </c>
       <c r="C34" s="4">
-        <v>1062556946</v>
+        <v>1327005888</v>
       </c>
       <c r="D34" s="4">
-        <v>1088157041</v>
+        <v>967890139</v>
       </c>
       <c r="E34" s="4">
-        <v>565778</v>
+        <v>9973418</v>
       </c>
       <c r="F34" s="4">
-        <v>56664426</v>
+        <v>5785</v>
       </c>
       <c r="G34" s="4">
-        <v>567271367</v>
+        <v>507173824</v>
       </c>
       <c r="H34" s="4">
-        <v>33626976</v>
+        <v>86439748</v>
       </c>
       <c r="I34" s="4">
-        <v>8354749</v>
+        <v>8063464</v>
       </c>
       <c r="J34" s="4"/>
       <c r="N34" t="e">
@@ -5419,33 +5488,33 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="7">
         <f t="shared" si="0"/>
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B35" s="4">
-        <v>4725900344</v>
+        <v>4819143515</v>
       </c>
       <c r="C35" s="4">
-        <v>1102396890</v>
+        <v>1415112832</v>
       </c>
       <c r="D35" s="4">
-        <v>1070945741</v>
+        <v>946465032</v>
       </c>
       <c r="E35" s="4">
-        <v>2706244</v>
+        <v>16380199</v>
       </c>
       <c r="F35" s="4">
-        <v>36550</v>
+        <v>317</v>
       </c>
       <c r="G35" s="4">
-        <v>608499359</v>
+        <v>613490678</v>
       </c>
       <c r="H35" s="4">
-        <v>36571818</v>
+        <v>35452464</v>
       </c>
       <c r="I35" s="4">
-        <v>9062932</v>
+        <v>9880443</v>
       </c>
       <c r="J35" s="4"/>
       <c r="N35" t="e">
@@ -5454,34 +5523,15 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>1986</v>
-      </c>
-      <c r="B36" s="4">
-        <v>4849868427</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1297310988</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1052575516</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8927669</v>
-      </c>
-      <c r="F36" s="4">
-        <v>14750</v>
-      </c>
-      <c r="G36" s="4">
-        <v>590756444</v>
-      </c>
-      <c r="H36" s="4">
-        <v>35256936</v>
-      </c>
-      <c r="I36" s="4">
-        <v>5562830</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="N36" t="e">
         <f t="shared" si="1"/>
@@ -5489,34 +5539,15 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>1985</v>
-      </c>
-      <c r="B37" s="4">
-        <v>4667657988</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1327005888</v>
-      </c>
-      <c r="D37" s="4">
-        <v>967890139</v>
-      </c>
-      <c r="E37" s="4">
-        <v>9973418</v>
-      </c>
-      <c r="F37" s="4">
-        <v>5785</v>
-      </c>
-      <c r="G37" s="4">
-        <v>507173824</v>
-      </c>
-      <c r="H37" s="4">
-        <v>86439748</v>
-      </c>
-      <c r="I37" s="4">
-        <v>8063464</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="N37" t="e">
         <f t="shared" si="1"/>
@@ -5524,34 +5555,15 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>1984</v>
-      </c>
-      <c r="B38" s="4">
-        <v>4819143515</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1415112832</v>
-      </c>
-      <c r="D38" s="4">
-        <v>946465032</v>
-      </c>
-      <c r="E38" s="4">
-        <v>16380199</v>
-      </c>
-      <c r="F38" s="4">
-        <v>317</v>
-      </c>
-      <c r="G38" s="4">
-        <v>613490678</v>
-      </c>
-      <c r="H38" s="4">
-        <v>35452464</v>
-      </c>
-      <c r="I38" s="4">
-        <v>9880443</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="N38" t="e">
         <f t="shared" si="1"/>
@@ -5559,10 +5571,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>1983</v>
-      </c>
+      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -5578,10 +5587,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>1982</v>
-      </c>
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -5591,16 +5597,9 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="N40" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>1981</v>
-      </c>
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -5610,65 +5609,18 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="N41" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>1980</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="N42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>1979</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>1978</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>1977</v>
-      </c>
+      <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -5680,10 +5632,7 @@
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>1976</v>
-      </c>
+      <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -5695,10 +5644,7 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>1975</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -5710,10 +5656,7 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>1974</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -5725,10 +5668,7 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>1973</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -5740,10 +5680,7 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>1972</v>
-      </c>
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -5755,10 +5692,7 @@
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>1971</v>
-      </c>
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -5770,10 +5704,7 @@
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>1970</v>
-      </c>
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -5785,10 +5716,7 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <f t="shared" si="0"/>
-        <v>1969</v>
-      </c>
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -5800,10 +5728,7 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <f t="shared" si="0"/>
-        <v>1968</v>
-      </c>
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -5815,10 +5740,7 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
-        <v>1967</v>
-      </c>
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -5830,10 +5752,7 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <f t="shared" si="0"/>
-        <v>1966</v>
-      </c>
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -5845,10 +5764,7 @@
       <c r="J56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <f t="shared" si="0"/>
-        <v>1965</v>
-      </c>
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -5860,10 +5776,7 @@
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <f t="shared" si="0"/>
-        <v>1964</v>
-      </c>
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -5875,10 +5788,7 @@
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <f t="shared" si="0"/>
-        <v>1963</v>
-      </c>
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -5890,10 +5800,7 @@
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <f t="shared" si="0"/>
-        <v>1962</v>
-      </c>
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -5905,10 +5812,7 @@
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <f t="shared" si="0"/>
-        <v>1961</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -5920,10 +5824,7 @@
       <c r="J61" s="4"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <f t="shared" si="0"/>
-        <v>1960</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5935,10 +5836,7 @@
       <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <f t="shared" si="0"/>
-        <v>1959</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -5950,10 +5848,7 @@
       <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <f t="shared" si="0"/>
-        <v>1958</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5965,10 +5860,7 @@
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <f t="shared" si="0"/>
-        <v>1957</v>
-      </c>
+      <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -5980,10 +5872,7 @@
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <f t="shared" si="0"/>
-        <v>1956</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -5995,10 +5884,7 @@
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <f t="shared" si="0"/>
-        <v>1955</v>
-      </c>
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6010,10 +5896,7 @@
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <f t="shared" si="0"/>
-        <v>1954</v>
-      </c>
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -6025,10 +5908,7 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <f t="shared" si="0"/>
-        <v>1953</v>
-      </c>
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -6040,10 +5920,7 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <f t="shared" ref="A70:A133" si="2">A69-1</f>
-        <v>1952</v>
-      </c>
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6055,10 +5932,7 @@
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <f t="shared" si="2"/>
-        <v>1951</v>
-      </c>
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6070,10 +5944,7 @@
       <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <f t="shared" si="2"/>
-        <v>1950</v>
-      </c>
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6085,10 +5956,7 @@
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <f t="shared" si="2"/>
-        <v>1949</v>
-      </c>
+      <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6100,10 +5968,7 @@
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <f t="shared" si="2"/>
-        <v>1948</v>
-      </c>
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6115,10 +5980,7 @@
       <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <f t="shared" si="2"/>
-        <v>1947</v>
-      </c>
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6130,10 +5992,7 @@
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <f t="shared" si="2"/>
-        <v>1946</v>
-      </c>
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6145,10 +6004,7 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <f t="shared" si="2"/>
-        <v>1945</v>
-      </c>
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6160,10 +6016,7 @@
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <f t="shared" si="2"/>
-        <v>1944</v>
-      </c>
+      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6175,10 +6028,7 @@
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <f t="shared" si="2"/>
-        <v>1943</v>
-      </c>
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6190,10 +6040,7 @@
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <f t="shared" si="2"/>
-        <v>1942</v>
-      </c>
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6205,10 +6052,7 @@
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <f t="shared" si="2"/>
-        <v>1941</v>
-      </c>
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6220,10 +6064,7 @@
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <f t="shared" si="2"/>
-        <v>1940</v>
-      </c>
+      <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6235,10 +6076,7 @@
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <f t="shared" si="2"/>
-        <v>1939</v>
-      </c>
+      <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6250,10 +6088,7 @@
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <f t="shared" si="2"/>
-        <v>1938</v>
-      </c>
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6265,10 +6100,7 @@
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <f t="shared" si="2"/>
-        <v>1937</v>
-      </c>
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6280,10 +6112,7 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <f t="shared" si="2"/>
-        <v>1936</v>
-      </c>
+      <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6295,10 +6124,7 @@
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <f t="shared" si="2"/>
-        <v>1935</v>
-      </c>
+      <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6310,10 +6136,7 @@
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <f t="shared" si="2"/>
-        <v>1934</v>
-      </c>
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6325,10 +6148,7 @@
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <f t="shared" si="2"/>
-        <v>1933</v>
-      </c>
+      <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6340,10 +6160,7 @@
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <f t="shared" si="2"/>
-        <v>1932</v>
-      </c>
+      <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6355,10 +6172,7 @@
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <f t="shared" si="2"/>
-        <v>1931</v>
-      </c>
+      <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6370,10 +6184,7 @@
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <f t="shared" si="2"/>
-        <v>1930</v>
-      </c>
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6385,10 +6196,7 @@
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <f t="shared" si="2"/>
-        <v>1929</v>
-      </c>
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6400,10 +6208,7 @@
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <f t="shared" si="2"/>
-        <v>1928</v>
-      </c>
+      <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6415,10 +6220,7 @@
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <f t="shared" si="2"/>
-        <v>1927</v>
-      </c>
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6430,10 +6232,7 @@
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <f t="shared" si="2"/>
-        <v>1926</v>
-      </c>
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6445,10 +6244,7 @@
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <f t="shared" si="2"/>
-        <v>1925</v>
-      </c>
+      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6460,10 +6256,7 @@
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <f t="shared" si="2"/>
-        <v>1924</v>
-      </c>
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6475,10 +6268,7 @@
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <f t="shared" si="2"/>
-        <v>1923</v>
-      </c>
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6490,10 +6280,7 @@
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <f t="shared" si="2"/>
-        <v>1922</v>
-      </c>
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6505,10 +6292,7 @@
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <f t="shared" si="2"/>
-        <v>1921</v>
-      </c>
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6520,10 +6304,7 @@
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <f t="shared" si="2"/>
-        <v>1920</v>
-      </c>
+      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6535,10 +6316,7 @@
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <f t="shared" si="2"/>
-        <v>1919</v>
-      </c>
+      <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -6550,10 +6328,7 @@
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <f t="shared" si="2"/>
-        <v>1918</v>
-      </c>
+      <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -6565,10 +6340,7 @@
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <f t="shared" si="2"/>
-        <v>1917</v>
-      </c>
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -6580,10 +6352,7 @@
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <f t="shared" si="2"/>
-        <v>1916</v>
-      </c>
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6595,10 +6364,7 @@
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <f t="shared" si="2"/>
-        <v>1915</v>
-      </c>
+      <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6610,10 +6376,7 @@
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <f t="shared" si="2"/>
-        <v>1914</v>
-      </c>
+      <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -6625,10 +6388,7 @@
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <f t="shared" si="2"/>
-        <v>1913</v>
-      </c>
+      <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -6640,10 +6400,7 @@
       <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <f t="shared" si="2"/>
-        <v>1912</v>
-      </c>
+      <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6655,10 +6412,7 @@
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <f t="shared" si="2"/>
-        <v>1911</v>
-      </c>
+      <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -6670,10 +6424,7 @@
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <f t="shared" si="2"/>
-        <v>1910</v>
-      </c>
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -6685,10 +6436,7 @@
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <f t="shared" si="2"/>
-        <v>1909</v>
-      </c>
+      <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6700,10 +6448,7 @@
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <f t="shared" si="2"/>
-        <v>1908</v>
-      </c>
+      <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -6715,10 +6460,7 @@
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <f t="shared" si="2"/>
-        <v>1907</v>
-      </c>
+      <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -6730,10 +6472,7 @@
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <f t="shared" si="2"/>
-        <v>1906</v>
-      </c>
+      <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -6745,10 +6484,7 @@
       <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <f t="shared" si="2"/>
-        <v>1905</v>
-      </c>
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6760,10 +6496,7 @@
       <c r="J117" s="4"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <f t="shared" si="2"/>
-        <v>1904</v>
-      </c>
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6775,10 +6508,7 @@
       <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <f t="shared" si="2"/>
-        <v>1903</v>
-      </c>
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -6790,10 +6520,7 @@
       <c r="J119" s="4"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <f t="shared" si="2"/>
-        <v>1902</v>
-      </c>
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -6805,10 +6532,7 @@
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <f t="shared" si="2"/>
-        <v>1901</v>
-      </c>
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -6820,10 +6544,7 @@
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <f t="shared" si="2"/>
-        <v>1900</v>
-      </c>
+      <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -6835,10 +6556,7 @@
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <f t="shared" si="2"/>
-        <v>1899</v>
-      </c>
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -6850,10 +6568,7 @@
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <f t="shared" si="2"/>
-        <v>1898</v>
-      </c>
+      <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -6865,10 +6580,7 @@
       <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <f t="shared" si="2"/>
-        <v>1897</v>
-      </c>
+      <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -6880,10 +6592,7 @@
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <f t="shared" si="2"/>
-        <v>1896</v>
-      </c>
+      <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -6895,10 +6604,7 @@
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <f t="shared" si="2"/>
-        <v>1895</v>
-      </c>
+      <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -6910,10 +6616,7 @@
       <c r="J127" s="4"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <f t="shared" si="2"/>
-        <v>1894</v>
-      </c>
+      <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -6925,10 +6628,7 @@
       <c r="J128" s="4"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <f t="shared" si="2"/>
-        <v>1893</v>
-      </c>
+      <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -6940,10 +6640,7 @@
       <c r="J129" s="4"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <f t="shared" si="2"/>
-        <v>1892</v>
-      </c>
+      <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -6955,10 +6652,7 @@
       <c r="J130" s="4"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <f t="shared" si="2"/>
-        <v>1891</v>
-      </c>
+      <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -6970,10 +6664,7 @@
       <c r="J131" s="4"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <f t="shared" si="2"/>
-        <v>1890</v>
-      </c>
+      <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -6985,10 +6676,7 @@
       <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <f t="shared" si="2"/>
-        <v>1889</v>
-      </c>
+      <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -7000,10 +6688,7 @@
       <c r="J133" s="4"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <f t="shared" ref="A134:A160" si="3">A133-1</f>
-        <v>1888</v>
-      </c>
+      <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -7015,10 +6700,7 @@
       <c r="J134" s="4"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <f t="shared" si="3"/>
-        <v>1887</v>
-      </c>
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -7030,10 +6712,7 @@
       <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <f t="shared" si="3"/>
-        <v>1886</v>
-      </c>
+      <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -7045,10 +6724,7 @@
       <c r="J136" s="4"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <f t="shared" si="3"/>
-        <v>1885</v>
-      </c>
+      <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -7060,10 +6736,7 @@
       <c r="J137" s="4"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <f t="shared" si="3"/>
-        <v>1884</v>
-      </c>
+      <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -7075,10 +6748,7 @@
       <c r="J138" s="4"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
-        <f t="shared" si="3"/>
-        <v>1883</v>
-      </c>
+      <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -7090,10 +6760,7 @@
       <c r="J139" s="4"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <f t="shared" si="3"/>
-        <v>1882</v>
-      </c>
+      <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -7105,10 +6772,7 @@
       <c r="J140" s="4"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
-        <f t="shared" si="3"/>
-        <v>1881</v>
-      </c>
+      <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -7120,10 +6784,7 @@
       <c r="J141" s="4"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <f t="shared" si="3"/>
-        <v>1880</v>
-      </c>
+      <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -7135,10 +6796,7 @@
       <c r="J142" s="4"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <f t="shared" si="3"/>
-        <v>1879</v>
-      </c>
+      <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -7150,10 +6808,7 @@
       <c r="J143" s="4"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <f t="shared" si="3"/>
-        <v>1878</v>
-      </c>
+      <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -7165,10 +6820,7 @@
       <c r="J144" s="4"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <f t="shared" si="3"/>
-        <v>1877</v>
-      </c>
+      <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -7180,10 +6832,7 @@
       <c r="J145" s="4"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <f t="shared" si="3"/>
-        <v>1876</v>
-      </c>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -7195,10 +6844,7 @@
       <c r="J146" s="4"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <f t="shared" si="3"/>
-        <v>1875</v>
-      </c>
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -7210,10 +6856,7 @@
       <c r="J147" s="4"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <f t="shared" si="3"/>
-        <v>1874</v>
-      </c>
+      <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -7225,10 +6868,7 @@
       <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
-        <f t="shared" si="3"/>
-        <v>1873</v>
-      </c>
+      <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -7240,10 +6880,7 @@
       <c r="J149" s="4"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <f t="shared" si="3"/>
-        <v>1872</v>
-      </c>
+      <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -7255,10 +6892,7 @@
       <c r="J150" s="4"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
-        <f t="shared" si="3"/>
-        <v>1871</v>
-      </c>
+      <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -7270,10 +6904,7 @@
       <c r="J151" s="4"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <f t="shared" si="3"/>
-        <v>1870</v>
-      </c>
+      <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -7285,10 +6916,7 @@
       <c r="J152" s="4"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <f t="shared" si="3"/>
-        <v>1869</v>
-      </c>
+      <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -7300,10 +6928,7 @@
       <c r="J153" s="4"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
-        <f t="shared" si="3"/>
-        <v>1868</v>
-      </c>
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -7315,10 +6940,7 @@
       <c r="J154" s="4"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <f t="shared" si="3"/>
-        <v>1867</v>
-      </c>
+      <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -7330,10 +6952,7 @@
       <c r="J155" s="4"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
-        <f t="shared" si="3"/>
-        <v>1866</v>
-      </c>
+      <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -7345,10 +6964,7 @@
       <c r="J156" s="4"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
-        <f t="shared" si="3"/>
-        <v>1865</v>
-      </c>
+      <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -7360,10 +6976,7 @@
       <c r="J157" s="4"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
-        <f t="shared" si="3"/>
-        <v>1864</v>
-      </c>
+      <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -7375,10 +6988,7 @@
       <c r="J158" s="4"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <f t="shared" si="3"/>
-        <v>1863</v>
-      </c>
+      <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -7390,10 +7000,7 @@
       <c r="J159" s="4"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
-        <f t="shared" si="3"/>
-        <v>1862</v>
-      </c>
+      <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -7430,34 +7037,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7860,7 +7467,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <f>SUM(C2:C13)</f>
@@ -7875,7 +7482,7 @@
         <v>1079064993</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="D14:H14" si="0">SUM(F2:F13)</f>
+        <f t="shared" ref="F14:H14" si="0">SUM(F2:F13)</f>
         <v>11495084</v>
       </c>
       <c r="G14" s="1">
@@ -8300,7 +7907,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C15:C26)</f>
@@ -8740,7 +8347,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(C28:C39)</f>
@@ -9180,7 +8787,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1">
         <f>SUM(C41:C52)</f>
@@ -9620,7 +9227,7 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1">
         <f>SUM(C54:C65)</f>
@@ -10060,7 +9667,7 @@
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="1">
         <f>SUM(C67:C78)</f>
@@ -10500,14 +10107,14 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" s="1">
         <f>SUM(C80:C91)</f>
         <v>4813247201</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" ref="D92:K92" si="12">SUM(D80:D91)</f>
+        <f t="shared" ref="D92:J92" si="12">SUM(D80:D91)</f>
         <v>1040832060</v>
       </c>
       <c r="E92" s="1">
@@ -10916,7 +10523,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105" s="1">
         <f>SUM(C93:C104)</f>
@@ -11335,7 +10942,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1">
         <f>SUM(C106:C117)</f>
@@ -11737,7 +11344,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" s="1">
         <f>SUM(C119:C130)</f>
@@ -12139,7 +11746,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C144" s="1">
         <f>SUM(C132:C143)</f>
@@ -12545,7 +12152,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C157" s="1">
         <f>SUM(C145:C156)</f>
